--- a/biology/Zoologie/Henricia_sanguinolenta/Henricia_sanguinolenta.xlsx
+++ b/biology/Zoologie/Henricia_sanguinolenta/Henricia_sanguinolenta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henricia sanguinolenta ou étoile de cuir boréale est une espèce d'étoile de mer, de la famille des Echinasteridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Atlantique du Nord et dans l'océan Pacifique Nord. C'est une espèce benthique et côtière, que l'on peut voir sur les plages, sous des roches, dans des bassins laissés par la marée et sur des fonds de gravier. Cette étoile de mer se rencontre souvent en présence d'éponges de mer. Henricia sanguinolenta vit à des profondeurs comprises entre 0 et 365 mètres[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Atlantique du Nord et dans l'océan Pacifique Nord. C'est une espèce benthique et côtière, que l'on peut voir sur les plages, sous des roches, dans des bassins laissés par la marée et sur des fonds de gravier. Cette étoile de mer se rencontre souvent en présence d'éponges de mer. Henricia sanguinolenta vit à des profondeurs comprises entre 0 et 365 mètres,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bras :
 Cette espèce possède cinq bras fins qui se rétrécissent uniformément en pointes à leur extrémité, et sont reliés par un disque central. Cette étoile de mer mesure entre 5 et 12 centimètres de diamètre. Sur la face orale, les bras sont lisses et ont une rainure ambulacraire qui contient deux rangées de podia (pieds munis de ventouses). Sur la face dorsale, les bras sont rugueux avec des groupements de spicules calcaires, vitreux et munis de trois à six pointes (au microscope). Les côtés des bras sont bombés et lisses. Les bras contiennent beaucoup d'organes, et des ocelles sont présentes à l'extrémité : ce sont des organes pigmentés sombres qui détectent la présence de la lumière. Les bras contiennent également des parties de l'estomac pylorique, les parties du système nerveux, et la plupart des autres organes.
